--- a/similarities/split_global/harmonic_similarity_timestamps_169.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_169.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,194 +484,202 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000'), ('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:53.820000', '0:01:02.520000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=53.82</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['A:7', 'D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000'), ('0:01:30.600000', '0:01:41.180000')]</t>
+          <t>('0:00:44.660000', '0:00:52.390000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:25.480000', '0:00:32.580000')]</t>
+          <t>('0:00:13.880000', '0:00:16.430000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=90.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=44.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=13.88</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:10.620000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.402743', '0:00:19.871043')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=14.402743']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:08.800000', '0:01:33.270000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=68.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -680,518 +688,526 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:47.026870')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.155000', '0:00:20.379000')]</t>
+          <t>('0:00:10.360000', '0:00:18.440000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=13.155']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:18.220000', '0:00:23.380000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.990317', '0:01:03.680748')]</t>
+          <t>('0:00:06.644221', '0:00:13.657911')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=18.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=58.990317']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=6.644221</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.120000', '0:00:24.900000')]</t>
+          <t>('0:00:33.100000', '0:00:41.940000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:20.200000')]</t>
+          <t>('0:00:21.900000', '0:00:51.500000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:48.700000')]</t>
+          <t>('0:00:10.260000', '0:00:24.700000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=21.9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=20.56']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['F#:7', 'B:maj', 'B:min']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:04.400000', '0:01:07.540000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000'), ('0:00:30.520000', '0:00:40.640000')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=64.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=30.52']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:14.168000', '0:00:18.573000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.701519', '0:00:23.528185')]</t>
+          <t>('0:00:06.980000', '0:00:15.900000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:22.379117', '0:02:27.510727')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:20.865000')]</t>
+          <t>('0:01:08.080000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000')]</t>
+          <t>('0:00:39.020000', '0:00:57.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=39.02</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'G:min/D', 'D:7', 'G:min'], ['A#:maj', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:45.940000', '0:00:59.040000'), ('0:00:38.940000', '0:00:49')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:24.680000', '0:00:31.820000'), ('0:01:07.160000', '0:01:12.400000')]</t>
+          <t>('0:00:06.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=45.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=38.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=24.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_234</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_170</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:min', 'Eb:7/#5', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C', 'G/3']]</t>
+          <t>['B:min', 'D:7/5', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
+          <t>('0:00:00.190000', '0:00:05.050000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:36.159841')]</t>
+          <t>('0:00:53.540761', '0:00:55.886393')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=0.19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-170#t=53.540761</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min', 'D']]</t>
+          <t>['F', 'Bb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
+          <t>['G:maj', 'C:maj', 'F:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:35.904784', '0:01:44.577437')]</t>
+          <t>('0:00:27.910918', '0:00:40.797993')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:04.080000', '0:00:08.700000')]</t>
+          <t>('0:00:15.100000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=95.904784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=27.910918</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=4.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=15.1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
